--- a/biology/Biologie cellulaire et moléculaire/MYBPC3/MYBPC3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/MYBPC3/MYBPC3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MYBPC3 (pour  « Myosin binding protein C3 ») est une protéine musculaire exprimée dans le myocarde. Son gène est MYBPC3 situé sur le chromosome 11 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe sur la myosine. Il intervient également dans le système ubiquitine-protéasome[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe sur la myosine. Il intervient également dans le système ubiquitine-protéasome.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des mutations du gène sont responsables d'une cardiomyopathie hypertrophique[6] ou d'une cardiomyopathie dilatée[7].
-Il peut être dosé dans le sang et son taux serait indicateur d'une lésion du muscle cardiaque de manière plus précoce que le dosage de la troponine[8]. Il pourrait ainsi être utilisé dans le diagnostic précoce d'un infarctus du myocarde[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des mutations du gène sont responsables d'une cardiomyopathie hypertrophique ou d'une cardiomyopathie dilatée.
+Il peut être dosé dans le sang et son taux serait indicateur d'une lésion du muscle cardiaque de manière plus précoce que le dosage de la troponine. Il pourrait ainsi être utilisé dans le diagnostic précoce d'un infarctus du myocarde.
 </t>
         </is>
       </c>
